--- a/Documentos/Classes de equivalencia.xlsx
+++ b/Documentos/Classes de equivalencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\UFJF\13º Período\Testes de Software\Trabalhos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AA30C3-79A9-44AA-906A-150C9D5AF1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC1C10-1B68-4FC8-A604-08A9A73C5FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FB5C09A5-4C5F-437E-BF6E-D846420BB63C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{FB5C09A5-4C5F-437E-BF6E-D846420BB63C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main menu" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DF9DA4-565D-428B-BDA4-2AB18167B24F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +496,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
@@ -560,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF32760B-D916-440F-887A-32A8437F11CE}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
